--- a/02_MasterWifoMannheim/99_Backup/Course98.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course98.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F592811592F98357041FD07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A6B3118-C5D3-490B-87CD-BE2BC482AADB}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>IS 615 Design Thinking and Lean Development in Enterprise Software Development</t>
-  </si>
-  <si>
-    <t>C Aontents</t>
-  </si>
-  <si>
-    <t>Enterprise software development revolves around complex and interdependent software products for different companies, lines of business and industries. Hence, there is an inherent trade-off between standard software and domain-specific software solutions. companies thus have to keep track of various heterogeneous and possibly conflicting market requirements that are subject to changes and updates in ever shorter release cycles. However, it is essential for every enterprise software company to be able to build the right solutions efficiently. To be able to do so in the long run, large software companies elaborated good practices to ensure efficient development processes and innovative products. Among these, lean thinking and agile software development practices combined with Design Thinking and related practices are increasingly adopted and intertwined in the software industry. The goal of this module is to convey approaches from research and industry experience together with practical application based on concrete enterprise software challenges. The course includes both, lecture and workshop formats. combination with IS 613 as related term project is highly recommended.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>After completing the class, students will be able to  understand the issues and challenges involved in enterprise software development,  understand and apply large-scale agile development based on lean principles,  understand and apply Design Thinking and related innovation practices,  understand and evaluate business models for software companies and products,  understand and apply how to bring all of this together in enterprise reality,  understand and evaluate state of the art software engineering methods,  understand and explain particular success strategies recommended by practitioners, understand how to launch a start-up and scale a software company.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:Website (www.bwl.uni-mannheim.de/heinzl)</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Lecture 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>80% written exam (60 min.) 20% case study (mandatory)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Dr. Tobias Schimmer</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 Semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>IS 550</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IS 615 Design Thinking and Lean Development in Enterprise Software Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C Aontents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Enterprise software development revolves around complex and interdependent software products for different companies, lines of business and industries. Hence, there is an inherent trade-off between standard software and domain-specific software solutions. companies thus have to keep track of various heterogeneous and possibly conflicting market requirements that are subject to changes and updates in ever shorter release cycles. However, it is essential for every enterprise software company to be able to build the right solutions efficiently. To be able to do so in the long run, large software companies elaborated good practices to ensure efficient development processes and innovative products. Among these, lean thinking and agile software development practices combined with Design Thinking and related practices are increasingly adopted and intertwined in the software industry. The goal of this module is to convey approaches from research and industry experience together with practical application based on concrete enterprise software challenges. The course includes both, lecture and workshop formats. combination with IS 613 as related term project is highly recommended.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>After completing the class, students will be able to  understand the issues and challenges involved in enterprise software development,  understand and apply large-scale agile development based on lean principles,  understand and apply Design Thinking and related innovation practices,  understand and evaluate business models for software companies and products,  understand and apply how to bring all of this together in enterprise reality,  understand and evaluate state of the art software engineering methods,  understand and explain particular success strategies recommended by practitioners, understand how to launch a start-up and scale a software company.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IS 550</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:Website (www.bwl.uni-mannheim.de/heinzl)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Lecture 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>80% written exam (60 min.) 20% case study (mandatory)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dr. Tobias Schimmer</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
